--- a/output/1Y_P81_1VAL-D.xlsx
+++ b/output/1Y_P81_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>634.6708</v>
       </c>
-      <c r="G2" s="1">
-        <v>634.6708</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1474</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7562</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1474</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E3" s="1">
+        <v>634.6708</v>
+      </c>
       <c r="F3" s="1">
         <v>651.0205</v>
       </c>
-      <c r="G3" s="1">
-        <v>1285.6913</v>
-      </c>
       <c r="H3" s="1">
-        <v>19646.3912</v>
+        <v>9698.2775</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5558</v>
+        <v>9698.2775</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.7562</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19646.3912</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0151</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E4" s="1">
+        <v>1285.6913</v>
+      </c>
       <c r="F4" s="1">
         <v>654.4674</v>
       </c>
-      <c r="G4" s="1">
-        <v>1940.1587</v>
-      </c>
       <c r="H4" s="1">
-        <v>29490.9938</v>
+        <v>19542.893</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.4627</v>
+        <v>19542.893</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5558</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29490.9938</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0052</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E5" s="1">
+        <v>1940.1587</v>
+      </c>
       <c r="F5" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>2589.4166</v>
-      </c>
       <c r="H5" s="1">
-        <v>39675.8174</v>
+        <v>29727.6931</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4475</v>
+        <v>29727.6931</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4627</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39675.8174</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.042</v>
       </c>
+      <c r="E6" s="1">
+        <v>2589.4166</v>
+      </c>
       <c r="F6" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G6" s="1">
-        <v>3212.7802</v>
-      </c>
       <c r="H6" s="1">
-        <v>51272.4385</v>
+        <v>41324.24</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5628</v>
+        <v>41324.24</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.4475</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51272.4385</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0321</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E7" s="1">
+        <v>3212.7802</v>
+      </c>
       <c r="F7" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G7" s="1">
-        <v>3843.926</v>
-      </c>
       <c r="H7" s="1">
-        <v>60587.9619</v>
+        <v>50639.842</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.609</v>
+        <v>50639.842</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5628</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60587.9619</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0112</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E8" s="1">
+        <v>3843.926</v>
+      </c>
       <c r="F8" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>4470.0648</v>
-      </c>
       <c r="H8" s="1">
-        <v>71020.38959999999</v>
+        <v>61072.2965</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6597</v>
+        <v>61072.2965</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.609</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71020.38959999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.743</v>
       </c>
+      <c r="E9" s="1">
+        <v>4470.0648</v>
+      </c>
       <c r="F9" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G9" s="1">
-        <v>5067.3293</v>
-      </c>
       <c r="H9" s="1">
-        <v>84402.4509</v>
+        <v>74454.2934</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7874</v>
+        <v>74454.2934</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6597</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84402.4509</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0417</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E10" s="1">
+        <v>5067.3293</v>
+      </c>
       <c r="F10" s="1">
         <v>567.553</v>
       </c>
-      <c r="G10" s="1">
-        <v>5634.8823</v>
-      </c>
       <c r="H10" s="1">
-        <v>98768.781</v>
+        <v>88820.6553</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.9719</v>
+        <v>88820.6553</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7874</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98768.781</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0463</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E11" s="1">
+        <v>5634.8823</v>
+      </c>
       <c r="F11" s="1">
         <v>566.104</v>
       </c>
-      <c r="G11" s="1">
-        <v>6200.9863</v>
-      </c>
       <c r="H11" s="1">
-        <v>108969.9321</v>
+        <v>99021.78720000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.1265</v>
+        <v>99021.78720000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.9719</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>108969.9321</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E12" s="1">
+        <v>6200.9863</v>
+      </c>
       <c r="F12" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G12" s="1">
-        <v>6780.4008</v>
-      </c>
       <c r="H12" s="1">
-        <v>116414.7363</v>
+        <v>106466.5939</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2232</v>
+        <v>106466.5939</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.1265</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116414.7363</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0215</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E13" s="1">
+        <v>6780.4008</v>
+      </c>
       <c r="F13" s="1">
         <v>593.581</v>
       </c>
-      <c r="G13" s="1">
-        <v>7373.9819</v>
-      </c>
       <c r="H13" s="1">
-        <v>123584.9864</v>
+        <v>113636.8061</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2734</v>
+        <v>113636.8061</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.2232</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.47</v>
       </c>
-      <c r="L13" s="1">
-        <v>2868.1096</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7131.8904</v>
+        <v>2623.0172</v>
       </c>
       <c r="O13" s="1">
-        <v>2868.1096</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126453.096</v>
+        <v>-7376.9828</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0003</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E14" s="1">
+        <v>7373.9819</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7373.9819</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6780.4008</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124515.5829</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2623.0172</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2734</v>
+        <v>127138.6001</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9173</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124515.5829</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>127383.6925</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127383.6925</v>
+        <v>114492.4926</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0665</v>
+        <v>0.0283</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.7562</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>634.6708</v>
       </c>
       <c r="G2" s="1">
-        <v>634.6708</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1474</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7562</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1474</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.3605</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>634.6708</v>
       </c>
       <c r="F3" s="1">
         <v>651.0205</v>
       </c>
       <c r="G3" s="1">
-        <v>1285.6913</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19646.3912</v>
+        <v>9698.2775</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5558</v>
+        <v>9698.2775</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.7562</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19646.3912</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0151</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.2796</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1285.6913</v>
       </c>
       <c r="F4" s="1">
         <v>654.4674</v>
       </c>
       <c r="G4" s="1">
-        <v>1940.1587</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29490.9938</v>
+        <v>19542.893</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.4627</v>
+        <v>19542.893</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5558</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29490.9938</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0052</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.4022</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1940.1587</v>
       </c>
       <c r="F5" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2589.4166</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39675.8174</v>
+        <v>29727.6931</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4475</v>
+        <v>29727.6931</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4627</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39675.8174</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.042</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2589.4166</v>
       </c>
       <c r="F6" s="1">
         <v>543.6315</v>
       </c>
       <c r="G6" s="1">
-        <v>3133.048</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41324.24</v>
       </c>
       <c r="I6" s="1">
-        <v>48720.9358</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5507</v>
+        <v>41324.24</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38720.9358</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.9535</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8720.935799999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1279.0642</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51279.0642</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0323</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.8442</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3133.048</v>
       </c>
       <c r="F7" s="1">
         <v>673.5755</v>
       </c>
       <c r="G7" s="1">
-        <v>3806.6235</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49383.1028</v>
       </c>
       <c r="I7" s="1">
-        <v>59393.2008</v>
+        <v>1279.0642</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6026</v>
+        <v>50662.1671</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49393.2008</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7652</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10672.2651</v>
       </c>
-      <c r="O7" s="1">
-        <v>606.7992</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60606.7992</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.011</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.9709</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3806.6235</v>
       </c>
       <c r="F8" s="1">
         <v>599.2174</v>
       </c>
       <c r="G8" s="1">
-        <v>4405.8409</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60479.6346</v>
       </c>
       <c r="I8" s="1">
-        <v>68963.2414</v>
+        <v>606.7992</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6527</v>
+        <v>61086.4337</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58963.2414</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4896</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9570.0406</v>
       </c>
-      <c r="O8" s="1">
-        <v>1036.7586</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71036.7586</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.743</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4405.8409</v>
       </c>
       <c r="F9" s="1">
         <v>397.1754</v>
       </c>
       <c r="G9" s="1">
-        <v>4803.0163</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>73384.567</v>
       </c>
       <c r="I9" s="1">
-        <v>75613.1493</v>
+        <v>1036.7586</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7428</v>
+        <v>74421.3256</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65613.1493</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.8923</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6649.9079</v>
       </c>
-      <c r="O9" s="1">
-        <v>4386.8507</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84386.8507</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0413</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.6195</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4803.0163</v>
       </c>
       <c r="F10" s="1">
         <v>331.5961</v>
       </c>
       <c r="G10" s="1">
-        <v>5134.6124</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>84187.7499</v>
       </c>
       <c r="I10" s="1">
-        <v>81455.7072</v>
+        <v>4386.8507</v>
       </c>
       <c r="J10" s="1">
-        <v>15.864</v>
+        <v>88574.6007</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71455.7072</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.8773</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5842.558</v>
       </c>
-      <c r="O10" s="1">
-        <v>8544.292799999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98544.2928</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.044</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.6646</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5134.6124</v>
       </c>
       <c r="F11" s="1">
         <v>555.9356</v>
       </c>
       <c r="G11" s="1">
-        <v>5690.548</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90230.5441</v>
       </c>
       <c r="I11" s="1">
-        <v>91276.0868</v>
+        <v>8544.292799999999</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0399</v>
+        <v>98774.83689999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81276.0868</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8291</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9820.3796</v>
       </c>
-      <c r="O11" s="1">
-        <v>8723.913200000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>108723.9132</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0017</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.2588</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5690.548</v>
       </c>
       <c r="F12" s="1">
         <v>716.2362000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6406.7842</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>97702.7258</v>
       </c>
       <c r="I12" s="1">
-        <v>103637.4642</v>
+        <v>8723.913200000001</v>
       </c>
       <c r="J12" s="1">
-        <v>16.1762</v>
+        <v>106426.6389</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93637.4642</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4549</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12361.3774</v>
       </c>
-      <c r="O12" s="1">
-        <v>6362.5358</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116362.5358</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0199</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.8469</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6406.7842</v>
       </c>
       <c r="F13" s="1">
         <v>753.2912</v>
       </c>
       <c r="G13" s="1">
-        <v>7160.0754</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>107375.1405</v>
       </c>
       <c r="I13" s="1">
-        <v>116328.086</v>
+        <v>6362.5358</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2468</v>
+        <v>113737.6763</v>
       </c>
       <c r="K13" s="1">
+        <v>106328.086</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.5962</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.47</v>
       </c>
-      <c r="L13" s="1">
-        <v>2710.0697</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-9980.552100000001</v>
+        <v>2407.1018</v>
       </c>
       <c r="O13" s="1">
-        <v>6381.9837</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126381.9837</v>
+        <v>-10283.52</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0002</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.9739</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7160.0754</v>
       </c>
       <c r="F14" s="1">
         <v>-7160.0754</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120903.6015</v>
       </c>
       <c r="I14" s="1">
-        <v>116328.086</v>
+        <v>6079.0158</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2468</v>
+        <v>126982.6173</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106328.086</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.8501</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120903.6015</v>
       </c>
-      <c r="O14" s="1">
-        <v>127285.5852</v>
-      </c>
-      <c r="P14" s="1">
-        <v>127285.5852</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0667</v>
+        <v>0.0262</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.7562</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>634.6708</v>
       </c>
       <c r="G2" s="1">
-        <v>634.6708</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1474</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7562</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1474</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.3605</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>634.6708</v>
       </c>
       <c r="F3" s="1">
         <v>651.0205</v>
       </c>
       <c r="G3" s="1">
-        <v>1285.6913</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19646.3912</v>
+        <v>9698.2775</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5558</v>
+        <v>9698.2775</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.7562</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19646.3912</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0151</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.2796</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1285.6913</v>
       </c>
       <c r="F4" s="1">
         <v>654.4674</v>
       </c>
       <c r="G4" s="1">
-        <v>1940.1587</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29490.9938</v>
+        <v>19542.893</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.4627</v>
+        <v>19542.893</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5558</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29490.9938</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0052</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.4022</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1940.1587</v>
       </c>
       <c r="F5" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2589.4166</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39675.8174</v>
+        <v>29727.6931</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4475</v>
+        <v>29727.6931</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4627</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39675.8174</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.042</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2589.4166</v>
       </c>
       <c r="F6" s="1">
         <v>575.119</v>
       </c>
       <c r="G6" s="1">
-        <v>3164.5355</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41324.24</v>
       </c>
       <c r="I6" s="1">
-        <v>49226.0586</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5555</v>
+        <v>41324.24</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39226.0586</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.1486</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9226.0586</v>
       </c>
-      <c r="O6" s="1">
-        <v>773.9414</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51276.4476</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0322</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.8442</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3164.5355</v>
       </c>
       <c r="F7" s="1">
         <v>679.9928</v>
       </c>
       <c r="G7" s="1">
-        <v>3844.5283</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60597.4552</v>
+        <v>49879.4092</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>773.9414</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6066</v>
+        <v>50653.3506</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8001</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10773.9414</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60597.4552</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.9709</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3844.5283</v>
       </c>
       <c r="F8" s="1">
         <v>627.9537</v>
       </c>
       <c r="G8" s="1">
-        <v>4472.482</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61081.8657</v>
       </c>
       <c r="I8" s="1">
-        <v>70028.9855</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6577</v>
+        <v>61081.8657</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60028.9855</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6141</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10028.9855</v>
       </c>
-      <c r="O8" s="1">
-        <v>-28.9855</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71029.80839999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.743</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4472.482</v>
       </c>
       <c r="F9" s="1">
         <v>415.4329</v>
       </c>
       <c r="G9" s="1">
-        <v>4887.9149</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74494.5545</v>
       </c>
       <c r="I9" s="1">
-        <v>76984.5784</v>
+        <v>-28.9855</v>
       </c>
       <c r="J9" s="1">
-        <v>15.75</v>
+        <v>74465.569</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66984.5784</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.977</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6955.5929</v>
       </c>
-      <c r="O9" s="1">
-        <v>3015.4216</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84429.5095</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.042</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.6195</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4887.9149</v>
       </c>
       <c r="F10" s="1">
         <v>350.5969</v>
       </c>
       <c r="G10" s="1">
-        <v>5238.5118</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>85675.86079999999</v>
       </c>
       <c r="I10" s="1">
-        <v>83161.9204</v>
+        <v>3015.4216</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8751</v>
+        <v>88691.2824</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73161.9204</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.9679</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6177.342</v>
       </c>
-      <c r="O10" s="1">
-        <v>6838.0796</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98659.23789999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0448</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.6646</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5238.5118</v>
       </c>
       <c r="F11" s="1">
         <v>581.7957</v>
       </c>
       <c r="G11" s="1">
-        <v>5820.3075</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92056.36749999999</v>
       </c>
       <c r="I11" s="1">
-        <v>93439.10950000001</v>
+        <v>6838.0796</v>
       </c>
       <c r="J11" s="1">
-        <v>16.054</v>
+        <v>98894.4471</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83439.10950000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.928</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10277.1891</v>
       </c>
-      <c r="O11" s="1">
-        <v>6560.8905</v>
-      </c>
-      <c r="P11" s="1">
-        <v>108841.1546</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.2588</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5820.3075</v>
       </c>
       <c r="F12" s="1">
         <v>749.073</v>
       </c>
       <c r="G12" s="1">
-        <v>6569.3805</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>99930.6059</v>
       </c>
       <c r="I12" s="1">
-        <v>106367.211</v>
+        <v>6560.8905</v>
       </c>
       <c r="J12" s="1">
-        <v>16.1914</v>
+        <v>106491.4964</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96367.211</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5571</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12928.1015</v>
       </c>
-      <c r="O12" s="1">
-        <v>3632.789</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116424.4544</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0203</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.8469</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6569.3805</v>
       </c>
       <c r="F13" s="1">
         <v>790.9159</v>
       </c>
       <c r="G13" s="1">
-        <v>7360.2964</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>110100.1902</v>
       </c>
       <c r="I13" s="1">
-        <v>119691.6915</v>
+        <v>3632.789</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2618</v>
+        <v>113732.9792</v>
       </c>
       <c r="K13" s="1">
+        <v>109691.6915</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.6974</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.47</v>
       </c>
-      <c r="L13" s="1">
-        <v>2778.848</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-10545.6325</v>
+        <v>2461.9901</v>
       </c>
       <c r="O13" s="1">
-        <v>3087.1565</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126442.7802</v>
+        <v>-10862.4904</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0001</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.9739</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7360.2964</v>
       </c>
       <c r="F14" s="1">
         <v>-7360.2964</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124284.4931</v>
       </c>
       <c r="I14" s="1">
-        <v>119691.6915</v>
+        <v>2770.2986</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2618</v>
+        <v>127054.7917</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109691.6915</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9032</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124284.4931</v>
       </c>
-      <c r="O14" s="1">
-        <v>127371.6496</v>
-      </c>
-      <c r="P14" s="1">
-        <v>127371.6496</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0665</v>
+        <v>0.0268</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.7562</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>634.6708</v>
       </c>
       <c r="G2" s="1">
-        <v>634.6708</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1474</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7562</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1474</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.3605</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>634.6708</v>
       </c>
       <c r="F3" s="1">
         <v>651.0205</v>
       </c>
       <c r="G3" s="1">
-        <v>1285.6913</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19646.3912</v>
+        <v>9698.2775</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5558</v>
+        <v>9698.2775</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.7562</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19646.3912</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0151</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.2796</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1285.6913</v>
       </c>
       <c r="F4" s="1">
         <v>654.4674</v>
       </c>
       <c r="G4" s="1">
-        <v>1940.1587</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29490.9938</v>
+        <v>19542.893</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.4627</v>
+        <v>19542.893</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5558</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29490.9938</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0052</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.4022</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1940.1587</v>
       </c>
       <c r="F5" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2589.4166</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39675.8174</v>
+        <v>29727.6931</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4475</v>
+        <v>29727.6931</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4627</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39675.8174</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.042</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2589.4166</v>
       </c>
       <c r="F6" s="1">
         <v>606.9222</v>
       </c>
       <c r="G6" s="1">
-        <v>3196.3387</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41324.24</v>
       </c>
       <c r="I6" s="1">
-        <v>49736.2453</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5604</v>
+        <v>41324.24</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39736.2453</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.3456</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9736.2453</v>
       </c>
-      <c r="O6" s="1">
-        <v>263.7547</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51273.8048</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0322</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.8442</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3196.3387</v>
       </c>
       <c r="F7" s="1">
         <v>647.7925</v>
       </c>
       <c r="G7" s="1">
-        <v>3844.1313</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60591.1971</v>
+        <v>50380.691</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>263.7547</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6082</v>
+        <v>50644.4457</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6429</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10263.7547</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60591.1971</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.9709</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3844.1313</v>
       </c>
       <c r="F8" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4470.2701</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71023.6508</v>
+        <v>61075.5577</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.659</v>
+        <v>61075.5577</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6082</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71023.6508</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.743</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4470.2701</v>
       </c>
       <c r="F9" s="1">
         <v>504.2563</v>
       </c>
       <c r="G9" s="1">
-        <v>4974.5263</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74457.71219999999</v>
       </c>
       <c r="I9" s="1">
-        <v>78442.7629</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7689</v>
+        <v>74457.71219999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68442.7629</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.3107</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8442.7629</v>
       </c>
-      <c r="O9" s="1">
-        <v>1557.2371</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84413.9428</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0418</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.6195</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4974.5263</v>
       </c>
       <c r="F10" s="1">
         <v>370.3355</v>
       </c>
       <c r="G10" s="1">
-        <v>5344.8618</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>87193.9951</v>
       </c>
       <c r="I10" s="1">
-        <v>84967.8891</v>
+        <v>1557.2371</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8971</v>
+        <v>88751.2323</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74967.8891</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0704</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6525.1262</v>
       </c>
-      <c r="O10" s="1">
-        <v>5032.1109</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98717.3836</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0456</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.6646</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5344.8618</v>
       </c>
       <c r="F11" s="1">
         <v>608.7104</v>
       </c>
       <c r="G11" s="1">
-        <v>5953.5723</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>93925.257</v>
       </c>
       <c r="I11" s="1">
-        <v>95720.5154</v>
+        <v>5032.1109</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0778</v>
+        <v>98957.3679</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85720.5154</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.0379</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10752.6263</v>
       </c>
-      <c r="O11" s="1">
-        <v>4279.4846</v>
-      </c>
-      <c r="P11" s="1">
-        <v>108901.61</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.2588</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5953.5723</v>
       </c>
       <c r="F12" s="1">
         <v>783.3561999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6736.9285</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>102218.6683</v>
       </c>
       <c r="I12" s="1">
-        <v>109240.3041</v>
+        <v>4279.4846</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2151</v>
+        <v>106498.1529</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99240.30409999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.669</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13519.7888</v>
       </c>
-      <c r="O12" s="1">
-        <v>759.6959000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116428.0425</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0208</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.8469</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6736.9285</v>
       </c>
       <c r="F13" s="1">
         <v>638.6751</v>
       </c>
       <c r="G13" s="1">
-        <v>7375.6036</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>123612.1666</v>
+        <v>112908.2271</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>759.6959000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2699</v>
+        <v>113667.9229</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.3279</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.47</v>
       </c>
-      <c r="L13" s="1">
-        <v>2849.7208</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7909.9751</v>
+        <v>2518.3611</v>
       </c>
       <c r="O13" s="1">
-        <v>2849.7208</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126461.8873</v>
+        <v>-8241.334800000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0003</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.9739</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7375.6036</v>
       </c>
       <c r="F14" s="1">
         <v>-7375.6036</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124542.9678</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2518.3611</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2699</v>
+        <v>127061.3288</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.914</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124542.9678</v>
       </c>
-      <c r="O14" s="1">
-        <v>127392.6885</v>
-      </c>
-      <c r="P14" s="1">
-        <v>127392.6885</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0665</v>
+        <v>0.0274</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.7562</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>634.6708</v>
       </c>
       <c r="G2" s="1">
-        <v>634.6708</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1474</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7562</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1474</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.3605</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>634.6708</v>
       </c>
       <c r="F3" s="1">
         <v>651.0205</v>
       </c>
       <c r="G3" s="1">
-        <v>1285.6913</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19646.3912</v>
+        <v>9698.2775</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5558</v>
+        <v>9698.2775</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.7562</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19646.3912</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0151</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.2796</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1285.6913</v>
       </c>
       <c r="F4" s="1">
         <v>654.4674</v>
       </c>
       <c r="G4" s="1">
-        <v>1940.1587</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29490.9938</v>
+        <v>19542.893</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.4627</v>
+        <v>19542.893</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5558</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29490.9938</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0052</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.4022</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1940.1587</v>
       </c>
       <c r="F5" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2589.4166</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39675.8174</v>
+        <v>29727.6931</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4475</v>
+        <v>29727.6931</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4627</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39675.8174</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.042</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2589.4166</v>
       </c>
       <c r="F6" s="1">
         <v>623.3637</v>
       </c>
       <c r="G6" s="1">
-        <v>3212.7802</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51272.4385</v>
+        <v>41324.24</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5628</v>
+        <v>41324.24</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.4475</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51272.4385</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0321</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.8442</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3212.7802</v>
       </c>
       <c r="F7" s="1">
         <v>631.1458</v>
       </c>
       <c r="G7" s="1">
-        <v>3843.926</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60587.9619</v>
+        <v>50639.842</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.609</v>
+        <v>50639.842</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5628</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60587.9619</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0112</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.9709</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3843.926</v>
       </c>
       <c r="F8" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4470.0648</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71020.38959999999</v>
+        <v>61072.2965</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6597</v>
+        <v>61072.2965</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.609</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71020.38959999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.743</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4470.0648</v>
       </c>
       <c r="F9" s="1">
         <v>592.8181</v>
       </c>
       <c r="G9" s="1">
-        <v>5062.883</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>74454.2934</v>
       </c>
       <c r="I9" s="1">
-        <v>79925.5543</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7866</v>
+        <v>74454.2934</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69925.5543</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6431</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9925.5543</v>
       </c>
-      <c r="O9" s="1">
-        <v>74.4457</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84402.8368</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0417</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.6195</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5062.883</v>
       </c>
       <c r="F10" s="1">
         <v>390.8352</v>
       </c>
       <c r="G10" s="1">
-        <v>5453.7181</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>88742.7187</v>
       </c>
       <c r="I10" s="1">
-        <v>86811.87480000001</v>
+        <v>74.4457</v>
       </c>
       <c r="J10" s="1">
-        <v>15.9179</v>
+        <v>88817.1645</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76811.87480000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1716</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6886.3206</v>
       </c>
-      <c r="O10" s="1">
-        <v>3188.1252</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98781.4421</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0464</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.6646</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5453.7181</v>
       </c>
       <c r="F11" s="1">
         <v>636.717</v>
       </c>
       <c r="G11" s="1">
-        <v>6090.4351</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>95838.18889999999</v>
       </c>
       <c r="I11" s="1">
-        <v>98059.2259</v>
+        <v>3188.1252</v>
       </c>
       <c r="J11" s="1">
-        <v>16.1005</v>
+        <v>99026.3141</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88059.2259</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1466</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11247.3511</v>
       </c>
-      <c r="O11" s="1">
-        <v>1940.7741</v>
-      </c>
-      <c r="P11" s="1">
-        <v>108967.9908</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.2588</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6090.4351</v>
       </c>
       <c r="F12" s="1">
         <v>691.8658</v>
       </c>
       <c r="G12" s="1">
-        <v>6782.301</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116447.3601</v>
+        <v>104568.508</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>1940.7741</v>
       </c>
       <c r="J12" s="1">
-        <v>16.2187</v>
+        <v>106509.2821</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4192</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11940.7741</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116447.3601</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0212</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.8469</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6782.301</v>
       </c>
       <c r="F13" s="1">
         <v>593.581</v>
       </c>
       <c r="G13" s="1">
-        <v>7375.882</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>123616.8318</v>
+        <v>113668.6514</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2692</v>
+        <v>113668.6514</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.2187</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.47</v>
       </c>
-      <c r="L13" s="1">
-        <v>2868.9133</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7131.0867</v>
+        <v>2576.2541</v>
       </c>
       <c r="O13" s="1">
-        <v>2868.9133</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126485.7451</v>
+        <v>-7423.7459</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0003</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.9739</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7375.882</v>
       </c>
       <c r="F14" s="1">
         <v>-7375.882</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124547.6681</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2576.2541</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2692</v>
+        <v>127123.9222</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9135</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124547.6681</v>
       </c>
-      <c r="O14" s="1">
-        <v>127416.5814</v>
-      </c>
-      <c r="P14" s="1">
-        <v>127416.5814</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0664</v>
+        <v>0.0279</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.9281</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.2734</v>
+        <v>14.9173</v>
       </c>
       <c r="D3" s="1">
-        <v>16.2468</v>
+        <v>14.8501</v>
       </c>
       <c r="E3" s="1">
-        <v>16.2618</v>
+        <v>14.9032</v>
       </c>
       <c r="F3" s="1">
-        <v>16.2699</v>
+        <v>14.914</v>
       </c>
       <c r="G3" s="1">
-        <v>16.2692</v>
+        <v>14.9135</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0788</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0136</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0123</v>
+        <v>0.0822</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0133</v>
+        <v>0.0832</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0136</v>
+        <v>0.0833</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0139</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0916</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1011</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0998</v>
+        <v>0.0927</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1003</v>
+        <v>0.0939</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1007</v>
+        <v>0.0948</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1011</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.6385999999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.0664</v>
+        <v>0.6666</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.0803</v>
+        <v>0.6671</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.0698</v>
+        <v>0.6694</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.0669</v>
+        <v>0.6649</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.0633</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1159</v>
+        <v>-0.0442</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1197</v>
+        <v>0.1146</v>
       </c>
       <c r="E7" s="3">
-        <v>0.119</v>
+        <v>0.1137</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1179</v>
+        <v>0.1125</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1173</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2868.1096</v>
+        <v>2623.0172</v>
       </c>
       <c r="D8" s="1">
-        <v>2710.0697</v>
+        <v>2407.1018</v>
       </c>
       <c r="E8" s="1">
-        <v>2778.848</v>
+        <v>2461.9901</v>
       </c>
       <c r="F8" s="1">
-        <v>2849.7208</v>
+        <v>2518.3611</v>
       </c>
       <c r="G8" s="1">
-        <v>2868.9133</v>
+        <v>2576.2541</v>
       </c>
     </row>
   </sheetData>
